--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,54 +43,54 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -100,10 +100,16 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
@@ -115,43 +121,55 @@
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>ready</t>
   </si>
   <si>
     <t>relief</t>
@@ -163,46 +181,49 @@
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>giving</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -560,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
@@ -679,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6153846153846154</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,13 +924,13 @@
         <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5526315789473685</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4864864864864865</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4708994708994709</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.375968992248062</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C15">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3728813559322034</v>
+        <v>0.28</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7708333333333334</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2214765100671141</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>0.75625</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,37 +1450,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07539682539682539</v>
+        <v>0.006083294337856809</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>233</v>
+        <v>2124</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7625</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,37 +1500,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00676764421527554</v>
+        <v>0.005795235028976175</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="F20">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3082</v>
+        <v>3088</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1550,13 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1547,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1555,13 +1576,13 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1573,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1581,13 +1602,13 @@
         <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1599,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1607,13 +1628,13 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6088235294117647</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1625,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1633,13 +1654,13 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1651,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1659,13 +1680,13 @@
         <v>50</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1677,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1685,13 +1706,13 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1703,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1711,13 +1732,13 @@
         <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5690376569037657</v>
+        <v>0.66</v>
       </c>
       <c r="L28">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1729,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1737,13 +1758,13 @@
         <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5661016949152542</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L29">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1755,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1763,13 +1784,13 @@
         <v>54</v>
       </c>
       <c r="K30">
-        <v>0.5285714285714286</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1781,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1789,13 +1810,13 @@
         <v>55</v>
       </c>
       <c r="K31">
-        <v>0.5230769230769231</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1807,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1815,25 +1836,25 @@
         <v>56</v>
       </c>
       <c r="K32">
-        <v>0.425</v>
+        <v>0.575</v>
       </c>
       <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>17</v>
-      </c>
-      <c r="M32">
-        <v>17</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1841,13 +1862,13 @@
         <v>57</v>
       </c>
       <c r="K33">
-        <v>0.3932584269662922</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1859,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1867,13 +1888,13 @@
         <v>58</v>
       </c>
       <c r="K34">
-        <v>0.3424657534246575</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1885,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1893,13 +1914,13 @@
         <v>59</v>
       </c>
       <c r="K35">
-        <v>0.3095238095238095</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1911,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1919,13 +1940,13 @@
         <v>60</v>
       </c>
       <c r="K36">
-        <v>0.2888888888888889</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1937,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1945,13 +1966,13 @@
         <v>61</v>
       </c>
       <c r="K37">
-        <v>0.2549019607843137</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1963,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1971,25 +1992,207 @@
         <v>62</v>
       </c>
       <c r="K38">
-        <v>0.1923076923076923</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L38">
+        <v>43</v>
+      </c>
+      <c r="M38">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L41">
+        <v>28</v>
+      </c>
+      <c r="M41">
+        <v>28</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L42">
         <v>15</v>
       </c>
-      <c r="M38">
+      <c r="M42">
         <v>15</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>63</v>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
